--- a/registration/config_files/cement_age_seg_sample.xlsx
+++ b/registration/config_files/cement_age_seg_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ml-workspace\registration\config_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13173741-5EC1-4A32-AE7D-C044009018AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0EC583-CA2B-4D3C-BC71-AF93F0D17E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="10190" windowWidth="28800" windowHeight="15370" xr2:uid="{1C2FB217-1823-42B4-965A-7FD6321A152F}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{1C2FB217-1823-42B4-965A-7FD6321A152F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>day</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>gray_cls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +416,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -424,6 +428,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -437,6 +444,9 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -446,6 +456,12 @@
       <c r="B3">
         <v>19</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>189</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -454,6 +470,12 @@
       <c r="B4">
         <v>46</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -462,6 +484,12 @@
       <c r="B5">
         <v>41</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>252</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -470,6 +498,12 @@
       <c r="B6">
         <v>21</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>126</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -478,6 +512,12 @@
       <c r="B7">
         <v>50</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -486,6 +526,12 @@
       <c r="B8">
         <v>31</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>252</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -494,6 +540,12 @@
       <c r="B9">
         <v>47</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -502,6 +554,12 @@
       <c r="B10">
         <v>44</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>189</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -510,6 +568,12 @@
       <c r="B11">
         <v>29</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>252</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -518,6 +582,12 @@
       <c r="B12">
         <v>22</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>189</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -526,6 +596,12 @@
       <c r="B13">
         <v>36</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -534,6 +610,12 @@
       <c r="B14">
         <v>52</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>252</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -542,6 +624,12 @@
       <c r="B15">
         <v>20</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>189</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -550,109 +638,193 @@
       <c r="B16">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
